--- a/BackTest/2019-11-21 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-21 BackTest ENJ.xlsx
@@ -486,17 +486,13 @@
         <v>78.09999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>78</v>
-      </c>
-      <c r="K3" t="n">
-        <v>78</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -525,22 +521,14 @@
         <v>77.99999999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" t="n">
-        <v>78</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,22 +556,14 @@
         <v>77.99999999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>78</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -611,22 +591,14 @@
         <v>78.49999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -654,22 +626,14 @@
         <v>78.84999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>79</v>
-      </c>
-      <c r="K7" t="n">
-        <v>78</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,22 +661,14 @@
         <v>78.89999999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>78</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -740,22 +696,14 @@
         <v>79.09999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>78</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>78.84999999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>78</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>78.64999999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>78</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>78.79999999999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>78.74999999999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>78</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>78.59999999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>78</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>78.59999999999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>78</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +941,14 @@
         <v>78.49999999999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>78</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +976,14 @@
         <v>78.14999999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>78</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,22 +1011,14 @@
         <v>77.84999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,22 +1046,14 @@
         <v>77.79999999999997</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>78</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1213,22 +1081,14 @@
         <v>77.79999999999995</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>78</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1116,14 @@
         <v>77.79999999999995</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>78</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,22 +1151,14 @@
         <v>78.04999999999995</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>78</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1186,14 @@
         <v>78.09999999999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>78</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1385,22 +1221,14 @@
         <v>78.14999999999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>78</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1256,14 @@
         <v>78.54999999999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>78</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1471,22 +1291,14 @@
         <v>78.69999999999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>78</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,22 +1326,14 @@
         <v>78.54999999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>78</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1557,22 +1361,14 @@
         <v>78.54999999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>78</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1396,14 @@
         <v>78.69999999999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>78</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1643,22 +1431,14 @@
         <v>78.54999999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>78</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1466,14 @@
         <v>78.49999999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>78</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1729,22 +1501,14 @@
         <v>78.64999999999996</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>78</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1536,14 @@
         <v>78.69999999999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>78</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1815,22 +1571,14 @@
         <v>78.49999999999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>78</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1606,14 @@
         <v>78.24999999999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>78</v>
-      </c>
-      <c r="K35" t="n">
-        <v>78</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1641,14 @@
         <v>77.94999999999996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>78</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1944,22 +1676,14 @@
         <v>77.94999999999996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>78</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1987,22 +1711,14 @@
         <v>78.29999999999995</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>78</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +1746,14 @@
         <v>78.49999999999994</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>78</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2073,22 +1781,14 @@
         <v>78.64999999999993</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K40" t="n">
-        <v>78</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1816,14 @@
         <v>78.69999999999995</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>78</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +1851,14 @@
         <v>78.69999999999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>78</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +1886,14 @@
         <v>78.79999999999995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>78</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2245,22 +1921,14 @@
         <v>78.79999999999995</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>78</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +1956,14 @@
         <v>78.74999999999996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>78</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2331,22 +1991,14 @@
         <v>78.84999999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>78</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2374,22 +2026,14 @@
         <v>78.89999999999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>78</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2061,14 @@
         <v>78.84999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>78</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2096,14 @@
         <v>79.04999999999997</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>79</v>
-      </c>
-      <c r="K49" t="n">
-        <v>78</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2131,14 @@
         <v>79.19999999999996</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K50" t="n">
-        <v>78</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2166,14 @@
         <v>79.24999999999997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>78</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>78</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>78</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>78</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>78</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>78</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>78</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2841,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>78</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2882,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>78</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>78</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>78</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>78</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>78</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3087,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>78</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3128,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>78</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>78</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>78</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3248,17 +2764,11 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>78</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3292,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>78</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3333,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>78</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3374,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>78</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>78</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3456,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>78</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>78</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3538,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>78</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>78</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>78</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3661,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>78</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3702,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>78</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3743,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>78</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3784,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>78</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3825,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>78</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3866,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>78</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3907,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>78</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3948,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>78</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>78</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4030,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>78</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>78</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>78</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4153,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>78</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4194,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>78</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4235,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>78</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4276,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>78</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>78</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>78</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4396,19 +3744,13 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>78</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>1.050128205128205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4437,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4472,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4507,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4542,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4577,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4612,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -5802,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5837,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5872,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5907,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5942,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -9722,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9897,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -10317,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -10352,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -13219,14 +12561,20 @@
         <v>79.4999999999998</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13254,14 +12602,20 @@
         <v>80.0499999999998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13289,14 +12643,20 @@
         <v>79.64999999999979</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>80</v>
+      </c>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13331,7 +12691,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13366,7 +12730,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13401,7 +12769,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13436,7 +12808,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13471,7 +12847,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13506,7 +12886,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13541,7 +12925,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13576,7 +12964,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13611,7 +13003,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +13042,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13681,7 +13081,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13716,7 +13120,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13751,7 +13159,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13786,7 +13198,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13821,7 +13237,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13856,7 +13276,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13891,7 +13315,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13926,7 +13354,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13961,7 +13393,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13996,7 +13432,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14031,7 +13471,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14066,7 +13510,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +13549,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14136,7 +13588,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14171,7 +13627,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14206,7 +13666,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14241,7 +13705,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14276,7 +13744,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14311,7 +13783,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14346,7 +13822,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +13861,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14416,7 +13900,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14451,7 +13939,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14486,7 +13978,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14521,7 +14017,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14556,7 +14056,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14591,7 +14095,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-21 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-21 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>97533.91660000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,15 +644,17 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>79.3</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -655,10 +685,14 @@
         <v>57452.27380000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -692,10 +726,14 @@
         <v>39911.92530000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -729,10 +767,14 @@
         <v>39520.84200000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -766,10 +808,14 @@
         <v>42103.76980000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -803,10 +849,14 @@
         <v>42110.76980000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -840,10 +890,14 @@
         <v>43319.61790000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -877,10 +931,14 @@
         <v>43329.61790000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -914,10 +972,14 @@
         <v>43329.61790000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -953,8 +1015,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -990,8 +1056,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1027,8 +1097,12 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1064,8 +1138,12 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1101,8 +1179,12 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1138,8 +1220,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1175,8 +1261,12 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,8 +1302,12 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1247,10 +1341,14 @@
         <v>-8145.427299999972</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1286,8 +1384,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1321,10 +1423,14 @@
         <v>-4970.237099999973</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1360,8 +1466,12 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1397,8 +1507,12 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1434,8 +1548,12 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1471,8 +1589,12 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1506,10 +1628,14 @@
         <v>-76837.12569999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1543,10 +1669,14 @@
         <v>-76837.12569999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1580,10 +1710,14 @@
         <v>-75896.11359999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1617,10 +1751,14 @@
         <v>-81607.51949999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>79</v>
+      </c>
+      <c r="J34" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1654,10 +1792,14 @@
         <v>-88252.16729999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1691,10 +1833,14 @@
         <v>-88227.16729999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1728,10 +1874,14 @@
         <v>-88227.16729999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1765,10 +1915,14 @@
         <v>-84389.16729999997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,10 +1956,14 @@
         <v>-86792.52269999997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1839,10 +1997,14 @@
         <v>-86792.52269999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,12 +2038,14 @@
         <v>-86792.52269999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>78.5</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,12 +2079,14 @@
         <v>-85844.96539999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>78.5</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,10 +2120,14 @@
         <v>-86044.96539999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,10 +2161,14 @@
         <v>-81447.59229999997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,10 +2202,14 @@
         <v>-80805.59229999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,10 +2243,14 @@
         <v>-123307.083</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>79</v>
+      </c>
+      <c r="J46" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,10 +2284,14 @@
         <v>-123307.083</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,10 +2325,14 @@
         <v>-85746.40459999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,10 +2366,14 @@
         <v>-85767.47989999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,10 +2407,14 @@
         <v>-85591.78779999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,10 +2448,14 @@
         <v>-85591.78779999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,10 +2489,14 @@
         <v>-87134.19069999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,10 +2530,14 @@
         <v>-66856.03849999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2361,10 +2571,14 @@
         <v>-67066.03849999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,10 +2612,14 @@
         <v>-61145.03849999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,10 +2653,14 @@
         <v>-13142.63099999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>79</v>
+      </c>
+      <c r="J56" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,10 +2694,14 @@
         <v>-13308.64669999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J57" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,10 +2735,14 @@
         <v>-13308.64669999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>79</v>
+      </c>
+      <c r="J58" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,7 +2779,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,10 +2815,14 @@
         <v>-115483.1991</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,10 +2856,14 @@
         <v>-102596.1991</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>78</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,10 +2897,14 @@
         <v>-124634.2287</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,10 +2938,14 @@
         <v>-124634.2287</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>78</v>
+      </c>
+      <c r="J63" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,10 +2979,14 @@
         <v>-124634.2287</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>78</v>
+      </c>
+      <c r="J64" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,10 +3020,14 @@
         <v>-86427.92259999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>78</v>
+      </c>
+      <c r="J65" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,10 +3061,14 @@
         <v>-107865.2824</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>79</v>
+      </c>
+      <c r="J66" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,10 +3102,14 @@
         <v>-98683.59919999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,10 +3143,14 @@
         <v>-98683.59919999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,7 +3187,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,10 +3223,14 @@
         <v>-99161.80089999996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,10 +3264,14 @@
         <v>-99046.92249999996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3027,10 +3305,14 @@
         <v>-99694.80249999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,10 +3346,14 @@
         <v>-99694.80249999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,10 +3387,14 @@
         <v>-99694.80249999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,10 +3428,14 @@
         <v>-99709.82729999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,10 +3469,14 @@
         <v>-99734.85209999996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,10 +3510,14 @@
         <v>-129899.3561</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J77" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,10 +3551,14 @@
         <v>-129899.3561</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,10 +3592,14 @@
         <v>-129899.3561</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,10 +3633,14 @@
         <v>-129899.3561</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,12 +3674,14 @@
         <v>-123665.92</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>77.8</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,12 +3715,14 @@
         <v>-145915.3736</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>78.3</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,10 +3756,14 @@
         <v>-145795.3736</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,10 +3797,14 @@
         <v>-139905.3736</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,10 +3838,14 @@
         <v>-139905.3736</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3549,10 +3879,14 @@
         <v>-148762.4196</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,10 +3920,14 @@
         <v>-141982.4196</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,10 +3961,14 @@
         <v>-141982.4196</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,10 +4002,14 @@
         <v>-152954.5791</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3697,10 +4043,14 @@
         <v>-152309.5791</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,10 +4084,14 @@
         <v>-150695.5791</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J91" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,12 +4125,14 @@
         <v>-150695.5791</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>78.7</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3810,10 +4166,14 @@
         <v>-150809.9654</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,10 +4207,14 @@
         <v>-155817.6406</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3884,10 +4248,14 @@
         <v>-157045.1436</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,10 +4289,14 @@
         <v>-156933.3006</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,10 +4330,14 @@
         <v>-156919.0874</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,10 +4371,14 @@
         <v>-152503.1284</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,12 +4412,14 @@
         <v>-136494.4838</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,10 +4453,14 @@
         <v>-136494.4838</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,10 +4494,14 @@
         <v>-136494.4838</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,10 +4535,14 @@
         <v>-37470.70119999998</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,10 +4576,14 @@
         <v>-41282.64539999998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J103" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,10 +4617,14 @@
         <v>-41168.64539999998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,10 +4658,14 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,10 +4699,14 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J106" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,10 +4740,14 @@
         <v>-38310.77209999997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,10 +4781,14 @@
         <v>-38117.69789999997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,7 +4825,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,7 +4864,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,7 +4903,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,7 +4942,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4552,10 +4978,14 @@
         <v>103987.0694</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4629,7 +5061,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,7 +5100,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4703,7 +5139,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,7 +5217,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,7 +5256,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,7 +5295,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,7 +5373,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,7 +5412,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,7 +5451,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,7 +5490,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,7 +5568,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,7 +5607,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,7 +5646,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5221,7 +5685,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,7 +5724,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,7 +5763,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,7 +5802,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,7 +5841,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,7 +5880,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,7 +5958,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,7 +5997,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5554,7 +6036,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5591,7 +6075,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,7 +6153,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,7 +6192,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,7 +6231,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,7 +6270,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,7 +6309,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,7 +6348,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,7 +6387,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5924,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5998,7 +6504,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,7 +6543,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,7 +6582,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,7 +6621,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6146,7 +6660,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,7 +6699,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,7 +6738,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6257,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6294,7 +6816,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,7 +6855,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,7 +6894,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,7 +6933,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,7 +6972,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,7 +7011,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,7 +7050,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,7 +7089,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,7 +7128,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,7 +7167,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,7 +7206,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,7 +7245,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,7 +7284,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,7 +7323,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,7 +7362,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,7 +7401,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,7 +7440,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6923,7 +7479,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6960,7 +7518,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,7 +7557,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7034,7 +7596,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7071,7 +7635,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,7 +7674,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,7 +7713,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,7 +7752,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,7 +7791,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,7 +7830,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,7 +7869,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7330,7 +7908,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,7 +7947,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,7 +7986,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,16 +8022,20 @@
         <v>601214.10621227</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
       <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -7473,11 +8061,17 @@
         <v>620014.10621227</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7506,15 +8100,23 @@
         <v>600737.44261227</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>1.05890977443609</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7539,7 +8141,7 @@
         <v>620270.60401227</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7572,7 +8174,7 @@
         <v>610352.22641227</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7605,7 +8207,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7638,7 +8240,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7671,7 +8273,7 @@
         <v>810250.13081227</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7704,7 +8306,7 @@
         <v>761607.71941227</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7737,7 +8339,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7770,7 +8372,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7803,7 +8405,7 @@
         <v>760651.46591227</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7836,7 +8438,7 @@
         <v>789257.69221227</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7869,7 +8471,7 @@
         <v>789152.6949122699</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7902,7 +8504,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7935,7 +8537,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7968,7 +8570,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8001,7 +8603,7 @@
         <v>767688.62451227</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8034,7 +8636,7 @@
         <v>756362.17181227</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8067,7 +8669,7 @@
         <v>788622.47381227</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8100,7 +8702,7 @@
         <v>786555.19591227</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8133,7 +8735,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8166,7 +8768,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8199,7 +8801,7 @@
         <v>790793.47071227</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8232,7 +8834,7 @@
         <v>810708.24681227</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8265,7 +8867,7 @@
         <v>804749.11731227</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8298,7 +8900,7 @@
         <v>804759.11731227</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8331,7 +8933,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8364,7 +8966,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8397,7 +8999,7 @@
         <v>785386.4700122699</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8430,7 +9032,7 @@
         <v>785393.3712122699</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8463,7 +9065,7 @@
         <v>785352.1846122699</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8496,7 +9098,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8529,7 +9131,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8991,7 +9593,7 @@
         <v>755086.3158122697</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9090,7 +9692,7 @@
         <v>755061.1997122697</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9123,7 +9725,7 @@
         <v>755071.3114122697</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9156,7 +9758,7 @@
         <v>755071.3114122697</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9189,7 +9791,7 @@
         <v>755071.3114122697</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9222,7 +9824,7 @@
         <v>755083.4112122697</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9255,7 +9857,7 @@
         <v>754519.3886122697</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9288,7 +9890,7 @@
         <v>754504.2466122697</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9321,7 +9923,7 @@
         <v>754492.1348122697</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9354,7 +9956,7 @@
         <v>754380.1332122697</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9387,7 +9989,7 @@
         <v>753596.1332122697</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9420,7 +10022,7 @@
         <v>753596.1332122697</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9453,7 +10055,7 @@
         <v>753606.3341122698</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9486,7 +10088,7 @@
         <v>767771.7669122698</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9519,7 +10121,7 @@
         <v>762045.7972122697</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9552,7 +10154,7 @@
         <v>763959.3117122698</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9585,7 +10187,7 @@
         <v>763949.3117122698</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9618,7 +10220,7 @@
         <v>777949.2333122698</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9651,7 +10253,7 @@
         <v>770562.0441122698</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9684,7 +10286,7 @@
         <v>770570.0441122698</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -11235,7 +11837,7 @@
         <v>684888.9029920726</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11268,7 +11870,7 @@
         <v>684888.9029920726</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11367,7 +11969,7 @@
         <v>689871.5672920727</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11400,7 +12002,7 @@
         <v>686085.1527920727</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11433,7 +12035,7 @@
         <v>679908.4419920727</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11466,7 +12068,7 @@
         <v>679908.4419920727</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11499,7 +12101,7 @@
         <v>680639.4419920727</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11532,7 +12134,7 @@
         <v>682927.4419920727</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11565,7 +12167,7 @@
         <v>674378.9531920727</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11664,7 +12266,7 @@
         <v>702100.0918920727</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11763,7 +12365,7 @@
         <v>705167.4513920727</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11796,7 +12398,7 @@
         <v>741812.7902920727</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11829,7 +12431,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11862,7 +12464,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12060,7 +12662,7 @@
         <v>734925.6568920728</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12093,7 +12695,7 @@
         <v>730819.1736920727</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12126,7 +12728,7 @@
         <v>731569.1736920727</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12159,7 +12761,7 @@
         <v>731576.1736920727</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12192,7 +12794,7 @@
         <v>676838.6654920727</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12225,7 +12827,7 @@
         <v>676732.4156920727</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12258,7 +12860,7 @@
         <v>676732.4156920727</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12324,7 +12926,7 @@
         <v>678998.4115920728</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12357,7 +12959,7 @@
         <v>679013.4115920728</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12390,7 +12992,7 @@
         <v>675328.2210920728</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12456,7 +13058,7 @@
         <v>678197.1686920727</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12522,7 +13124,7 @@
         <v>688249.6420920728</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12687,7 +13289,7 @@
         <v>706846.2464920727</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13347,7 +13949,7 @@
         <v>575613.4539036114</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13446,7 +14048,7 @@
         <v>547209.8424036114</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13545,7 +14147,7 @@
         <v>546105.3454036114</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13677,7 +14279,7 @@
         <v>527914.5830036114</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13908,7 +14510,7 @@
         <v>409948.4597036114</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13941,7 +14543,7 @@
         <v>409948.4597036114</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13974,7 +14576,7 @@
         <v>426602.3089036114</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14007,7 +14609,7 @@
         <v>440981.3753036114</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14040,7 +14642,7 @@
         <v>733744.0540036114</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14073,7 +14675,7 @@
         <v>357754.4950036114</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14106,7 +14708,7 @@
         <v>353737.7243036114</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -16196,6 +16798,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-21 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>79.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,2967 +517,2411 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1634.2425</v>
+      </c>
+      <c r="G5" t="n">
+        <v>97533.91660000003</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35815.5527</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61718.36390000003</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30060.3572</v>
+      </c>
+      <c r="G7" t="n">
+        <v>61718.36390000003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4266.0901</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57452.27380000002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17540.3485</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39911.92530000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>391.0833</v>
+      </c>
+      <c r="G10" t="n">
+        <v>39520.84200000003</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2582.9278</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42103.76980000002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>42110.76980000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1208.8481</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43319.61790000003</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>79.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C14" t="n">
         <v>79.8</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="D14" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43329.61790000003</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1320.2347</v>
+      </c>
+      <c r="G15" t="n">
+        <v>43329.61790000003</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44554.3022</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1224.684299999972</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11238.2297</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10013.54540000003</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3482.4866</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13496.03200000003</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1838.6095</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11657.42250000003</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79</v>
+      </c>
+      <c r="E20" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24861.3096</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-13203.88709999997</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1320.2347</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-14524.12179999997</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7627.8665</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-22151.98829999997</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13554.6965</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-8597.291799999972</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>451.8645</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8145.427299999972</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2414.1593</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-5731.267999999973</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>761.0309</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4970.237099999973</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>76935.1666</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-81905.40369999997</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60480.3628</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-142385.7665</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2641.1772</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-145026.9437</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>67459.818</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-77567.12569999998</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>730</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-76837.12569999998</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2501</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-76837.12569999998</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>79</v>
+      </c>
+      <c r="D33" t="n">
+        <v>79</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>941.0121</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-75896.11359999997</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5711.4059</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-81607.51949999997</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6644.6478</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-88252.16729999997</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-88227.16729999997</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5601.9346</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-88227.16729999997</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3838</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-84389.16729999997</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2403.3554</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-86792.52269999997</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15846.1169</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-86792.52269999997</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3527.0065</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-86792.52269999997</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>947.5573000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-85844.96539999997</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>200</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-86044.96539999997</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4597.3731</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-81447.59229999997</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>79</v>
+      </c>
+      <c r="D45" t="n">
+        <v>79</v>
+      </c>
+      <c r="E45" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>642</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-80805.59229999997</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>42501.4907</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-123307.083</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>149.625</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-123307.083</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>78</v>
+      </c>
+      <c r="F48" t="n">
+        <v>37560.6784</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-85746.40459999998</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21.0753</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-85767.47989999998</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>175.6921</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-85591.78779999998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6396.504161470216</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-85591.78779999998</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1542.4029</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-87134.19069999998</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20278.1522</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-66856.03849999998</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>210</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-67066.03849999998</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>79</v>
+      </c>
+      <c r="C55" t="n">
+        <v>79</v>
+      </c>
+      <c r="D55" t="n">
+        <v>79</v>
+      </c>
+      <c r="E55" t="n">
+        <v>79</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5921</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-61145.03849999998</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>79</v>
+      </c>
+      <c r="C56" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>79</v>
+      </c>
+      <c r="F56" t="n">
+        <v>48002.4075</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-13142.63099999998</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>79</v>
+      </c>
+      <c r="C57" t="n">
+        <v>79</v>
+      </c>
+      <c r="D57" t="n">
+        <v>79</v>
+      </c>
+      <c r="E57" t="n">
+        <v>79</v>
+      </c>
+      <c r="F57" t="n">
+        <v>166.0157</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-13308.64669999998</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>79</v>
+      </c>
+      <c r="C58" t="n">
+        <v>79</v>
+      </c>
+      <c r="D58" t="n">
+        <v>79</v>
+      </c>
+      <c r="E58" t="n">
+        <v>79</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8841.0843</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-13308.64669999998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>79</v>
+      </c>
+      <c r="E59" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>75547.36229999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-88856.00899999998</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>78</v>
+      </c>
+      <c r="D60" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>78</v>
+      </c>
+      <c r="F60" t="n">
+        <v>26627.1901</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-115483.1991</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12887</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-102596.1991</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78</v>
+      </c>
+      <c r="C62" t="n">
+        <v>78</v>
+      </c>
+      <c r="D62" t="n">
+        <v>78</v>
+      </c>
+      <c r="E62" t="n">
+        <v>78</v>
+      </c>
+      <c r="F62" t="n">
+        <v>22038.0296</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-124634.2287</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78</v>
+      </c>
+      <c r="C63" t="n">
+        <v>78</v>
+      </c>
+      <c r="D63" t="n">
+        <v>78</v>
+      </c>
+      <c r="E63" t="n">
+        <v>78</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4694.2777</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-124634.2287</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>78</v>
+      </c>
+      <c r="C64" t="n">
+        <v>78</v>
+      </c>
+      <c r="D64" t="n">
+        <v>78</v>
+      </c>
+      <c r="E64" t="n">
+        <v>78</v>
+      </c>
+      <c r="F64" t="n">
+        <v>928.583</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-124634.2287</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>78</v>
+      </c>
+      <c r="J64" t="n">
+        <v>78</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>79</v>
+      </c>
+      <c r="D65" t="n">
+        <v>79</v>
+      </c>
+      <c r="E65" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>38206.3061</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-86427.92259999998</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>78</v>
+      </c>
+      <c r="J65" t="n">
+        <v>78</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1634.2425</v>
-      </c>
-      <c r="G5" t="n">
-        <v>97533.91660000003</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>79</v>
+      </c>
+      <c r="C66" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21437.3598</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-107865.2824</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>78</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9181.683199999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-98683.59919999997</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>806.36</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-98683.59919999997</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>651.9607</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-99335.55989999996</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C70" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D70" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>173.759</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-99161.80089999996</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C71" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>114.8784</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-99046.92249999996</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>647.88</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-99694.80249999996</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D73" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E73" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4902.7277</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-99694.80249999996</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4411.5399</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-99694.80249999996</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E75" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15.0248</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-99709.82729999996</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25.0248</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-99734.85209999996</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>35815.5527</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61718.36390000003</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30060.3572</v>
-      </c>
-      <c r="G7" t="n">
-        <v>61718.36390000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4266.0901</v>
-      </c>
-      <c r="G8" t="n">
-        <v>57452.27380000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17540.3485</v>
-      </c>
-      <c r="G9" t="n">
-        <v>39911.92530000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>391.0833</v>
-      </c>
-      <c r="G10" t="n">
-        <v>39520.84200000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2582.9278</v>
-      </c>
-      <c r="G11" t="n">
-        <v>42103.76980000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>42110.76980000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1208.8481</v>
-      </c>
-      <c r="G13" t="n">
-        <v>43319.61790000003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>43329.61790000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1320.2347</v>
-      </c>
-      <c r="G15" t="n">
-        <v>43329.61790000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>79</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>79</v>
-      </c>
-      <c r="F16" t="n">
-        <v>44554.3022</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1224.684299999972</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11238.2297</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10013.54540000003</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3482.4866</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13496.03200000003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1838.6095</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11657.42250000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>79</v>
-      </c>
-      <c r="C20" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>79</v>
-      </c>
-      <c r="E20" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24861.3096</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-13203.88709999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1320.2347</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-14524.12179999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7627.8665</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-22151.98829999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>13554.6965</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-8597.291799999972</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F24" t="n">
-        <v>451.8645</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-8145.427299999972</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2414.1593</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-5731.267999999973</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D26" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F26" t="n">
-        <v>761.0309</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-4970.237099999973</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>76935.1666</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-81905.40369999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C28" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D28" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>60480.3628</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-142385.7665</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2641.1772</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-145026.9437</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>67459.818</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-77567.12569999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E31" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F31" t="n">
-        <v>730</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-76837.12569999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2501</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-76837.12569999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J32" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>79</v>
-      </c>
-      <c r="D33" t="n">
-        <v>79</v>
-      </c>
-      <c r="E33" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>941.0121</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-75896.11359999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5711.4059</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-81607.51949999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>79</v>
-      </c>
-      <c r="J34" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6644.6478</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-88252.16729999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>25</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-88227.16729999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5601.9346</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-88227.16729999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C38" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3838</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-84389.16729999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E39" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2403.3554</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-86792.52269999997</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>15846.1169</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-86792.52269999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3527.0065</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-86792.52269999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>947.5573000000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-85844.96539999997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C43" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D43" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E43" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>200</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-86044.96539999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C44" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4597.3731</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-81447.59229999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C45" t="n">
-        <v>79</v>
-      </c>
-      <c r="D45" t="n">
-        <v>79</v>
-      </c>
-      <c r="E45" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>642</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-80805.59229999997</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J45" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>42501.4907</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-123307.083</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>79</v>
-      </c>
-      <c r="J46" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>149.625</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-123307.083</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J47" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D48" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>78</v>
-      </c>
-      <c r="F48" t="n">
-        <v>37560.6784</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-85746.40459999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>21.0753</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-85767.47989999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>175.6921</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-85591.78779999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="C51" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E51" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>6396.504161470216</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-85591.78779999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1542.4029</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-87134.19069999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>20278.1522</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-66856.03849999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D54" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>210</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-67066.03849999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>79</v>
-      </c>
-      <c r="C55" t="n">
-        <v>79</v>
-      </c>
-      <c r="D55" t="n">
-        <v>79</v>
-      </c>
-      <c r="E55" t="n">
-        <v>79</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5921</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-61145.03849999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>79</v>
-      </c>
-      <c r="C56" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D56" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E56" t="n">
-        <v>79</v>
-      </c>
-      <c r="F56" t="n">
-        <v>48002.4075</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-13142.63099999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>79</v>
-      </c>
-      <c r="J56" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>79</v>
-      </c>
-      <c r="C57" t="n">
-        <v>79</v>
-      </c>
-      <c r="D57" t="n">
-        <v>79</v>
-      </c>
-      <c r="E57" t="n">
-        <v>79</v>
-      </c>
-      <c r="F57" t="n">
-        <v>166.0157</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-13308.64669999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>79</v>
-      </c>
-      <c r="C58" t="n">
-        <v>79</v>
-      </c>
-      <c r="D58" t="n">
-        <v>79</v>
-      </c>
-      <c r="E58" t="n">
-        <v>79</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8841.0843</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-13308.64669999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>79</v>
-      </c>
-      <c r="J58" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>79</v>
-      </c>
-      <c r="C59" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>79</v>
-      </c>
-      <c r="E59" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>75547.36229999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-88856.00899999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>78</v>
-      </c>
-      <c r="D60" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>78</v>
-      </c>
-      <c r="F60" t="n">
-        <v>26627.1901</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-115483.1991</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>12887</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-102596.1991</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>78</v>
-      </c>
-      <c r="J61" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>78</v>
-      </c>
-      <c r="C62" t="n">
-        <v>78</v>
-      </c>
-      <c r="D62" t="n">
-        <v>78</v>
-      </c>
-      <c r="E62" t="n">
-        <v>78</v>
-      </c>
-      <c r="F62" t="n">
-        <v>22038.0296</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-124634.2287</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>78</v>
-      </c>
-      <c r="C63" t="n">
-        <v>78</v>
-      </c>
-      <c r="D63" t="n">
-        <v>78</v>
-      </c>
-      <c r="E63" t="n">
-        <v>78</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4694.2777</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-124634.2287</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>78</v>
-      </c>
-      <c r="C64" t="n">
-        <v>78</v>
-      </c>
-      <c r="D64" t="n">
-        <v>78</v>
-      </c>
-      <c r="E64" t="n">
-        <v>78</v>
-      </c>
-      <c r="F64" t="n">
-        <v>928.583</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-124634.2287</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78</v>
-      </c>
-      <c r="J64" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C65" t="n">
-        <v>79</v>
-      </c>
-      <c r="D65" t="n">
-        <v>79</v>
-      </c>
-      <c r="E65" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F65" t="n">
-        <v>38206.3061</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-86427.92259999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>78</v>
-      </c>
-      <c r="J65" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>79</v>
-      </c>
-      <c r="C66" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D66" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>21437.3598</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-107865.2824</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>79</v>
-      </c>
-      <c r="J66" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F67" t="n">
-        <v>9181.683199999999</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-98683.59919999997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>806.36</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-98683.59919999997</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C69" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="D69" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E69" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>651.9607</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-99335.55989999996</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C70" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D70" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="E70" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F70" t="n">
-        <v>173.759</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-99161.80089999996</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C71" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D71" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E71" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>114.8784</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-99046.92249999996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C72" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>647.88</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-99694.80249999996</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C73" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="D73" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E73" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4902.7277</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-99694.80249999996</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J73" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="F74" t="n">
-        <v>4411.5399</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-99694.80249999996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C75" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D75" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E75" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F75" t="n">
-        <v>15.0248</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-99709.82729999996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="D76" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F76" t="n">
-        <v>25.0248</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-99734.85209999996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3515,9 +2955,7 @@
       <c r="I77" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="J77" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,9 +2994,7 @@
       <c r="I78" t="n">
         <v>77.8</v>
       </c>
-      <c r="J78" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,9 +3033,7 @@
       <c r="I79" t="n">
         <v>77.8</v>
       </c>
-      <c r="J79" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3638,9 +3072,7 @@
       <c r="I80" t="n">
         <v>77.8</v>
       </c>
-      <c r="J80" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,9 +3111,7 @@
       <c r="I81" t="n">
         <v>77.8</v>
       </c>
-      <c r="J81" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,9 +3150,7 @@
       <c r="I82" t="n">
         <v>78.3</v>
       </c>
-      <c r="J82" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,9 +3189,7 @@
       <c r="I83" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="J83" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,9 +3228,7 @@
       <c r="I84" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J84" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,9 +3267,7 @@
       <c r="I85" t="n">
         <v>78.7</v>
       </c>
-      <c r="J85" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3884,9 +3306,7 @@
       <c r="I86" t="n">
         <v>78.7</v>
       </c>
-      <c r="J86" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,14 +3340,10 @@
         <v>-141982.4196</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J87" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,14 +3377,10 @@
         <v>-141982.4196</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,14 +3414,10 @@
         <v>-152954.5791</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,14 +3451,10 @@
         <v>-152309.5791</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="J90" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4089,9 +3493,7 @@
       <c r="I91" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="J91" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,9 +3532,7 @@
       <c r="I92" t="n">
         <v>78.7</v>
       </c>
-      <c r="J92" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,14 +3566,10 @@
         <v>-150809.9654</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,9 +3608,7 @@
       <c r="I94" t="n">
         <v>78.3</v>
       </c>
-      <c r="J94" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,9 +3647,7 @@
       <c r="I95" t="n">
         <v>78.2</v>
       </c>
-      <c r="J95" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +3686,7 @@
       <c r="I96" t="n">
         <v>77.7</v>
       </c>
-      <c r="J96" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4335,9 +3725,7 @@
       <c r="I97" t="n">
         <v>78.2</v>
       </c>
-      <c r="J97" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,9 +3764,7 @@
       <c r="I98" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J98" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,9 +3803,7 @@
       <c r="I99" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="J99" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,9 +3842,7 @@
       <c r="I100" t="n">
         <v>78.7</v>
       </c>
-      <c r="J100" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,14 +3876,10 @@
         <v>-136494.4838</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,14 +3913,10 @@
         <v>-37470.70119999998</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,14 +3950,10 @@
         <v>-41282.64539999998</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J103" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,14 +3987,10 @@
         <v>-41168.64539999998</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,14 +4024,10 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,14 +4061,10 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J106" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,14 +4098,10 @@
         <v>-38310.77209999997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J107" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,9 +4140,7 @@
       <c r="I108" t="n">
         <v>78.8</v>
       </c>
-      <c r="J108" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,9 +4177,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,9 +4214,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,9 +4251,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,9 +4288,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,14 +4322,10 @@
         <v>103987.0694</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J113" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,9 +4362,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,9 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,9 +4436,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,9 +4473,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,9 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5217,9 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,9 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,9 +4621,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,20 +4655,16 @@
         <v>194106.7057</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -5370,17 +4690,11 @@
         <v>322530.2688</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5409,17 +4723,11 @@
         <v>465386.566206135</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5448,17 +4756,11 @@
         <v>465386.566206135</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5487,17 +4789,11 @@
         <v>465386.566206135</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5526,17 +4822,11 @@
         <v>465386.566206135</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5565,17 +4855,11 @@
         <v>298875.53371227</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5604,17 +4888,11 @@
         <v>461420.63331227</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5643,17 +4921,11 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5682,17 +4954,11 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5721,17 +4987,11 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5760,17 +5020,11 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5799,17 +5053,11 @@
         <v>559553.0143122701</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5838,17 +5086,11 @@
         <v>510695.0113122701</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5877,17 +5119,11 @@
         <v>536772.74181227</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5916,17 +5152,11 @@
         <v>536772.74181227</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5955,17 +5185,11 @@
         <v>531796.15581227</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5994,17 +5218,11 @@
         <v>537426.10771227</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6036,14 +5254,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6075,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6114,14 +5320,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6150,17 +5350,11 @@
         <v>520933.74281227</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6189,17 +5383,11 @@
         <v>520933.74281227</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6228,17 +5416,11 @@
         <v>545686.34411227</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6267,17 +5449,11 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6306,17 +5482,11 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6345,17 +5515,11 @@
         <v>532687.68931227</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6384,17 +5548,11 @@
         <v>532663.35831227</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6423,17 +5581,11 @@
         <v>538667.14671227</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6462,17 +5614,11 @@
         <v>520946.48761227</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6501,17 +5647,11 @@
         <v>526977.71711227</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6540,17 +5680,11 @@
         <v>539198.95181227</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6579,17 +5713,11 @@
         <v>523821.00691227</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6618,17 +5746,11 @@
         <v>515513.11451227</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6657,17 +5779,11 @@
         <v>516520.19951227</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6696,17 +5812,11 @@
         <v>492537.56221227</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6735,17 +5845,11 @@
         <v>436220.61841227</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6774,17 +5878,11 @@
         <v>436230.63071227</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6813,17 +5911,11 @@
         <v>415841.59401227</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6852,17 +5944,11 @@
         <v>415851.97261227</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6894,14 +5980,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6933,14 +6013,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6972,14 +6046,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7011,14 +6079,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7050,14 +6112,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7089,14 +6145,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7128,14 +6178,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7167,14 +6211,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7206,14 +6244,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7245,14 +6277,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7284,14 +6310,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7323,14 +6343,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7362,14 +6376,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7401,14 +6409,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7440,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7479,14 +6475,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7518,14 +6508,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7557,14 +6541,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7596,14 +6574,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7635,14 +6607,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7674,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7713,14 +6673,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7752,14 +6706,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7791,14 +6739,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7830,14 +6772,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7869,14 +6805,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7908,14 +6838,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7947,14 +6871,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7986,14 +6904,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8025,14 +6937,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8064,14 +6970,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8100,23 +7000,15 @@
         <v>600737.44261227</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.05890977443609</v>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8141,7 +7033,7 @@
         <v>620270.60401227</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8174,7 +7066,7 @@
         <v>610352.22641227</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8207,7 +7099,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8240,7 +7132,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8273,7 +7165,7 @@
         <v>810250.13081227</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8306,7 +7198,7 @@
         <v>761607.71941227</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8339,7 +7231,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8372,7 +7264,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8405,7 +7297,7 @@
         <v>760651.46591227</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8438,7 +7330,7 @@
         <v>789257.69221227</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8471,7 +7363,7 @@
         <v>789152.6949122699</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8504,7 +7396,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8537,7 +7429,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8570,7 +7462,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8603,7 +7495,7 @@
         <v>767688.62451227</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8636,7 +7528,7 @@
         <v>756362.17181227</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8669,7 +7561,7 @@
         <v>788622.47381227</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8702,7 +7594,7 @@
         <v>786555.19591227</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8735,7 +7627,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8768,7 +7660,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8801,7 +7693,7 @@
         <v>790793.47071227</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8834,7 +7726,7 @@
         <v>810708.24681227</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8867,7 +7759,7 @@
         <v>804749.11731227</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8900,7 +7792,7 @@
         <v>804759.11731227</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8933,7 +7825,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8966,7 +7858,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8999,7 +7891,7 @@
         <v>785386.4700122699</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -9032,7 +7924,7 @@
         <v>785393.3712122699</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9065,7 +7957,7 @@
         <v>785352.1846122699</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9098,7 +7990,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9131,7 +8023,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9692,7 +8584,7 @@
         <v>755061.1997122697</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9725,7 +8617,7 @@
         <v>755071.3114122697</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9791,7 +8683,7 @@
         <v>755071.3114122697</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9824,7 +8716,7 @@
         <v>755083.4112122697</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9857,7 +8749,7 @@
         <v>754519.3886122697</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -11441,7 +10333,7 @@
         <v>756580.5002920727</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -12365,7 +11257,7 @@
         <v>705167.4513920727</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12398,7 +11290,7 @@
         <v>741812.7902920727</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12431,7 +11323,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12464,7 +11356,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -13058,7 +11950,7 @@
         <v>678197.1686920727</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13124,7 +12016,7 @@
         <v>688249.6420920728</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13289,7 +12181,7 @@
         <v>706846.2464920727</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13949,7 +12841,7 @@
         <v>575613.4539036114</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -16798,6 +15690,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-21 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>97533.91660000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>57452.27380000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>39911.92530000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>39520.84200000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>42103.76980000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>42110.76980000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>43319.61790000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +934,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +973,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1051,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1129,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1168,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1207,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1363,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1441,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1519,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1597,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1636,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1675,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1714,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1753,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1831,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1909,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1948,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2065,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2143,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2182,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2221,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2260,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2299,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2338,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2377,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2416,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2455,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2533,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2611,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2689,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2728,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2767,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2806,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2845,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,15 +2881,17 @@
         <v>-124634.2287</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>78</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>79.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2926,11 @@
         <v>78</v>
       </c>
       <c r="J65" t="n">
-        <v>78</v>
+        <v>79.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2579,11 +2965,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>78</v>
+        <v>79.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2617,8 +3003,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +3042,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2683,8 +3081,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +3159,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3198,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2815,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +3312,19 @@
         <v>-99709.82729999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2916,10 +3358,12 @@
       <c r="I76" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2955,7 +3399,9 @@
       <c r="I77" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,7 +3440,9 @@
       <c r="I78" t="n">
         <v>77.8</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,7 +3481,9 @@
       <c r="I79" t="n">
         <v>77.8</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,7 +3522,9 @@
       <c r="I80" t="n">
         <v>77.8</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,7 +3563,9 @@
       <c r="I81" t="n">
         <v>77.8</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,7 +3604,9 @@
       <c r="I82" t="n">
         <v>78.3</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,7 +3645,9 @@
       <c r="I83" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,7 +3686,9 @@
       <c r="I84" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,7 +3727,9 @@
       <c r="I85" t="n">
         <v>78.7</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,7 +3768,9 @@
       <c r="I86" t="n">
         <v>78.7</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,10 +3804,14 @@
         <v>-141982.4196</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,10 +3845,14 @@
         <v>-141982.4196</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,10 +3886,14 @@
         <v>-152954.5791</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,10 +3927,14 @@
         <v>-152309.5791</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,7 +3973,9 @@
       <c r="I91" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +4014,9 @@
       <c r="I92" t="n">
         <v>78.7</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3566,10 +4050,14 @@
         <v>-150809.9654</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,7 +4096,9 @@
       <c r="I94" t="n">
         <v>78.3</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,7 +4137,9 @@
       <c r="I95" t="n">
         <v>78.2</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,7 +4178,9 @@
       <c r="I96" t="n">
         <v>77.7</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,7 +4219,9 @@
       <c r="I97" t="n">
         <v>78.2</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,7 +4260,9 @@
       <c r="I98" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3803,7 +4301,9 @@
       <c r="I99" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,7 +4342,9 @@
       <c r="I100" t="n">
         <v>78.7</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,10 +4378,14 @@
         <v>-136494.4838</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,10 +4419,14 @@
         <v>-37470.70119999998</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,10 +4460,14 @@
         <v>-41282.64539999998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J103" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,10 +4501,14 @@
         <v>-41168.64539999998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,10 +4542,14 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,10 +4583,14 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J106" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4101,7 +4627,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,12 +4663,12 @@
         <v>-38117.69789999997</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,7 +4705,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,7 +4744,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,7 +4783,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,7 +4822,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4325,7 +4861,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,7 +4900,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,7 +4939,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,7 +4978,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4473,7 +5017,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,7 +5056,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4547,7 +5095,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,7 +5134,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,7 +5173,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,16 +5209,20 @@
         <v>194106.7057</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>79.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -4690,11 +5248,17 @@
         <v>322530.2688</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4723,11 +5287,17 @@
         <v>465386.566206135</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4756,11 +5326,17 @@
         <v>465386.566206135</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +5365,17 @@
         <v>465386.566206135</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +5404,17 @@
         <v>465386.566206135</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +5443,17 @@
         <v>298875.53371227</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +5482,17 @@
         <v>461420.63331227</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4921,11 +5521,17 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4954,11 +5560,17 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +5599,17 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5020,11 +5638,17 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5053,11 +5677,17 @@
         <v>559553.0143122701</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +5716,17 @@
         <v>510695.0113122701</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5119,11 +5755,17 @@
         <v>536772.74181227</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +5794,17 @@
         <v>536772.74181227</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +5833,17 @@
         <v>531796.15581227</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +5872,17 @@
         <v>537426.10771227</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5320,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +6028,17 @@
         <v>520933.74281227</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5383,11 +6067,17 @@
         <v>520933.74281227</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5416,11 +6106,17 @@
         <v>545686.34411227</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5449,11 +6145,17 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5482,11 +6184,17 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5515,11 +6223,17 @@
         <v>532687.68931227</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5548,11 +6262,17 @@
         <v>532663.35831227</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +6301,17 @@
         <v>538667.14671227</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +6340,17 @@
         <v>520946.48761227</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +6379,17 @@
         <v>526977.71711227</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5680,11 +6418,17 @@
         <v>539198.95181227</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5713,11 +6457,17 @@
         <v>523821.00691227</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +6496,17 @@
         <v>515513.11451227</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5779,11 +6535,17 @@
         <v>516520.19951227</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +6574,17 @@
         <v>492537.56221227</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5845,11 +6613,17 @@
         <v>436220.61841227</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5878,11 +6652,17 @@
         <v>436230.63071227</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +6691,17 @@
         <v>415841.59401227</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +6730,17 @@
         <v>415851.97261227</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5980,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6013,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6046,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6079,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6112,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6145,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6178,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6211,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6244,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6277,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6310,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6343,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6376,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +7279,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +7318,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6475,8 +7357,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6508,8 +7396,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6541,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6574,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6607,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6640,8 +7552,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6673,8 +7591,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6706,8 +7630,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6739,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6772,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6805,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6838,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6871,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6904,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6937,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6970,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7000,15 +7978,23 @@
         <v>600737.44261227</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>1.05890977443609</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7033,7 +8019,7 @@
         <v>620270.60401227</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7066,7 +8052,7 @@
         <v>610352.22641227</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7099,7 +8085,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7132,7 +8118,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7165,7 +8151,7 @@
         <v>810250.13081227</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7198,7 +8184,7 @@
         <v>761607.71941227</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7231,7 +8217,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7264,7 +8250,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7297,7 +8283,7 @@
         <v>760651.46591227</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7330,7 +8316,7 @@
         <v>789257.69221227</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7363,7 +8349,7 @@
         <v>789152.6949122699</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7396,7 +8382,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7429,7 +8415,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7462,7 +8448,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7495,7 +8481,7 @@
         <v>767688.62451227</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7528,7 +8514,7 @@
         <v>756362.17181227</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7561,7 +8547,7 @@
         <v>788622.47381227</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7594,7 +8580,7 @@
         <v>786555.19591227</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7693,7 +8679,7 @@
         <v>790793.47071227</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7825,7 +8811,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -10333,7 +11319,7 @@
         <v>756580.5002920727</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
